--- a/dataset/user_test_case1_gs/ref_coord.xlsx
+++ b/dataset/user_test_case1_gs/ref_coord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MinkiHong\processing-3.5.4-windows64\processing_storage\multi_display\user_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MinkiHong\processing-3.5.4-windows64\processing_storage\multi_display\user_test_case1_gs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,1111 +358,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>639</v>
+        <v>676.97699999999998</v>
       </c>
       <c r="B1">
-        <v>374.98099999999999</v>
+        <v>329.01799999999997</v>
       </c>
       <c r="C1">
-        <v>-138.94999999999999</v>
+        <v>-20.937000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>-289.00400000000002</v>
+        <v>-197.00899999999999</v>
       </c>
       <c r="B2">
-        <v>453.98500000000001</v>
+        <v>461.99799999999999</v>
       </c>
       <c r="C2">
-        <v>96.012</v>
+        <v>-106.989</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>-677.99800000000005</v>
+        <v>-677</v>
       </c>
       <c r="B3">
-        <v>205.988</v>
+        <v>98.91</v>
       </c>
       <c r="C3">
-        <v>-5.9820000000000002</v>
+        <v>-78.935000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>-670.995</v>
+        <v>-678.02200000000005</v>
       </c>
       <c r="B4">
-        <v>114.994</v>
+        <v>471.91500000000002</v>
       </c>
       <c r="C4">
-        <v>36.021999999999998</v>
+        <v>72.091999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>636.99</v>
+        <v>648.98699999999997</v>
       </c>
       <c r="B5">
-        <v>35.981999999999999</v>
+        <v>275.005</v>
       </c>
       <c r="C5">
-        <v>109.021</v>
+        <v>-9.9640000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>656.98900000000003</v>
+        <v>674.99699999999996</v>
       </c>
       <c r="B6">
-        <v>169.983</v>
+        <v>34.960999999999999</v>
       </c>
       <c r="C6">
-        <v>132.04400000000001</v>
+        <v>57.024000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>-171.00299999999999</v>
+        <v>225.99199999999999</v>
       </c>
       <c r="B7">
-        <v>454.99299999999999</v>
+        <v>463.98599999999999</v>
       </c>
       <c r="C7">
-        <v>-33.991999999999997</v>
+        <v>-59.988999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>-637.995</v>
+        <v>-639.01700000000005</v>
       </c>
       <c r="B8">
-        <v>367.983</v>
+        <v>450.971</v>
       </c>
       <c r="C8">
-        <v>60.039000000000001</v>
+        <v>-121.944</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>-666.98500000000001</v>
+        <v>-652.98500000000001</v>
       </c>
       <c r="B9">
-        <v>165.98500000000001</v>
+        <v>232.988</v>
       </c>
       <c r="C9">
-        <v>-32.942</v>
+        <v>66.033000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>636.98400000000004</v>
+        <v>642.96400000000006</v>
       </c>
       <c r="B10">
-        <v>334.95699999999999</v>
+        <v>499.036</v>
       </c>
       <c r="C10">
-        <v>134.066</v>
+        <v>-127.94499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>629.98199999999997</v>
+        <v>633.995</v>
       </c>
       <c r="B11">
-        <v>36.994999999999997</v>
+        <v>399.96100000000001</v>
       </c>
       <c r="C11">
-        <v>141.03800000000001</v>
+        <v>67.069999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>-168.00899999999999</v>
+        <v>272.99700000000001</v>
       </c>
       <c r="B12">
-        <v>472.98899999999998</v>
+        <v>405.99200000000002</v>
       </c>
       <c r="C12">
-        <v>-104.98399999999999</v>
+        <v>-138.99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>-635.99800000000005</v>
+        <v>-662.98699999999997</v>
       </c>
       <c r="B13">
-        <v>112.98</v>
+        <v>134.98599999999999</v>
       </c>
       <c r="C13">
-        <v>29.016999999999999</v>
+        <v>121.03100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>-674.99800000000005</v>
+        <v>-665.00900000000001</v>
       </c>
       <c r="B14">
-        <v>409.97800000000001</v>
+        <v>327.96199999999999</v>
       </c>
       <c r="C14">
-        <v>105.04300000000001</v>
+        <v>5.0650000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>676.01599999999996</v>
+        <v>643.01300000000003</v>
       </c>
       <c r="B15">
-        <v>324.959</v>
+        <v>376.96300000000002</v>
       </c>
       <c r="C15">
-        <v>-24.957999999999998</v>
+        <v>-81.933000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>662.01700000000005</v>
+        <v>654.005</v>
       </c>
       <c r="B16">
-        <v>276.93599999999998</v>
+        <v>496.96499999999997</v>
       </c>
       <c r="C16">
-        <v>27.05</v>
+        <v>45.072000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>63.77</v>
+        <v>-16.09</v>
       </c>
       <c r="B17">
-        <v>459.67399999999998</v>
+        <v>503.678</v>
       </c>
       <c r="C17">
-        <v>-143.77000000000001</v>
+        <v>124.99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>-669.029</v>
+        <v>-645.01400000000001</v>
       </c>
       <c r="B18">
-        <v>457.94299999999998</v>
+        <v>328.93400000000003</v>
       </c>
       <c r="C18">
-        <v>-62.948999999999998</v>
+        <v>90.04</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>-649.00599999999997</v>
+        <v>-636.98</v>
       </c>
       <c r="B19">
-        <v>493.97300000000001</v>
+        <v>469.03100000000001</v>
       </c>
       <c r="C19">
-        <v>56.042000000000002</v>
+        <v>-145.96299999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>648.01</v>
+        <v>650.99800000000005</v>
       </c>
       <c r="B20">
-        <v>317.96600000000001</v>
+        <v>444.964</v>
       </c>
       <c r="C20">
-        <v>-42.947000000000003</v>
+        <v>76.069999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>665.01700000000005</v>
+        <v>647.98199999999997</v>
       </c>
       <c r="B21">
-        <v>443.95600000000002</v>
+        <v>435.01299999999998</v>
       </c>
       <c r="C21">
-        <v>-25.937999999999999</v>
+        <v>-109.946</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>89.001999999999995</v>
+        <v>-239.01300000000001</v>
       </c>
       <c r="B22">
-        <v>413.01299999999998</v>
+        <v>446.983</v>
       </c>
       <c r="C22">
-        <v>-126.008</v>
+        <v>96.016000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>-655.005</v>
+        <v>-659.98599999999999</v>
       </c>
       <c r="B23">
-        <v>159.935</v>
+        <v>229.02</v>
       </c>
       <c r="C23">
-        <v>117.03700000000001</v>
+        <v>-54.973999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>-669.05499999999995</v>
+        <v>-649.00400000000002</v>
       </c>
       <c r="B24">
-        <v>489.899</v>
+        <v>316.971</v>
       </c>
       <c r="C24">
-        <v>-7.9189999999999996</v>
+        <v>-3.9609999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>674.00099999999998</v>
+        <v>632.00599999999997</v>
       </c>
       <c r="B25">
-        <v>370.99299999999999</v>
+        <v>295.93299999999999</v>
       </c>
       <c r="C25">
-        <v>-125.95099999999999</v>
+        <v>132.05600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>644.99400000000003</v>
+        <v>650.97699999999998</v>
       </c>
       <c r="B26">
-        <v>123.931</v>
+        <v>342.02100000000002</v>
       </c>
       <c r="C26">
-        <v>136.05699999999999</v>
+        <v>-40.945999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>-221.00200000000001</v>
+        <v>-287.01299999999998</v>
       </c>
       <c r="B27">
-        <v>451.995</v>
+        <v>413.99</v>
       </c>
       <c r="C27">
-        <v>83.007000000000005</v>
+        <v>27.013999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>-632.99599999999998</v>
+        <v>-673.99</v>
       </c>
       <c r="B28">
-        <v>6.9790000000000001</v>
+        <v>49.953000000000003</v>
       </c>
       <c r="C28">
-        <v>134.01599999999999</v>
+        <v>-74.945999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>-634</v>
+        <v>-654.98599999999999</v>
       </c>
       <c r="B29">
-        <v>193.959</v>
+        <v>237.97800000000001</v>
       </c>
       <c r="C29">
-        <v>98.028000000000006</v>
+        <v>-25.934999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>676.00199999999995</v>
+        <v>661.99099999999999</v>
       </c>
       <c r="B30">
-        <v>462.983</v>
+        <v>14.946999999999999</v>
       </c>
       <c r="C30">
-        <v>-70.953000000000003</v>
+        <v>60.037999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>673.99699999999996</v>
+        <v>630.01199999999994</v>
       </c>
       <c r="B31">
-        <v>318.99700000000001</v>
+        <v>286.93900000000002</v>
       </c>
       <c r="C31">
-        <v>-31.962</v>
+        <v>83.042000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>-50.045000000000002</v>
+        <v>-252.01400000000001</v>
       </c>
       <c r="B32">
-        <v>442.99299999999999</v>
+        <v>470.99200000000002</v>
       </c>
       <c r="C32">
-        <v>-41.524000000000001</v>
+        <v>32.008000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>-662.995</v>
+        <v>-633.99</v>
       </c>
       <c r="B33">
-        <v>306.99400000000003</v>
+        <v>329.98599999999999</v>
       </c>
       <c r="C33">
-        <v>49.023000000000003</v>
+        <v>82.028000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>-647.01300000000003</v>
+        <v>-664.99900000000002</v>
       </c>
       <c r="B34">
-        <v>477.95600000000002</v>
+        <v>360.976</v>
       </c>
       <c r="C34">
-        <v>55.04</v>
+        <v>-29.943999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>676.99199999999996</v>
+        <v>679.00599999999997</v>
       </c>
       <c r="B35">
-        <v>271.98</v>
+        <v>297.89400000000001</v>
       </c>
       <c r="C35">
-        <v>31.042000000000002</v>
+        <v>122.084</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>646.99</v>
+        <v>657.00800000000004</v>
       </c>
       <c r="B36">
-        <v>265.01</v>
+        <v>159.95400000000001</v>
       </c>
       <c r="C36">
-        <v>-50.972000000000001</v>
+        <v>21.033999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>-155.00700000000001</v>
+        <v>-162.994</v>
       </c>
       <c r="B37">
-        <v>439.99200000000002</v>
+        <v>446</v>
       </c>
       <c r="C37">
-        <v>105.011</v>
+        <v>-64.995999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>-671.00099999999998</v>
+        <v>-675.99199999999996</v>
       </c>
       <c r="B38">
-        <v>255.983</v>
+        <v>399.99099999999999</v>
       </c>
       <c r="C38">
-        <v>-30.959</v>
+        <v>-126.943</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>-671.00800000000004</v>
+        <v>-666.99099999999999</v>
       </c>
       <c r="B39">
-        <v>269.93400000000003</v>
+        <v>107.983</v>
       </c>
       <c r="C39">
-        <v>98.057000000000002</v>
+        <v>57.033000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>671.99300000000005</v>
+        <v>657.99800000000005</v>
       </c>
       <c r="B40">
-        <v>47.970999999999997</v>
+        <v>320.97300000000001</v>
       </c>
       <c r="C40">
-        <v>-32.969000000000001</v>
+        <v>-92.924000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>642.00400000000002</v>
+        <v>668.00300000000004</v>
       </c>
       <c r="B41">
-        <v>339.90600000000001</v>
+        <v>199.96899999999999</v>
       </c>
       <c r="C41">
-        <v>144.09299999999999</v>
+        <v>-3.9649999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>245.00800000000001</v>
+        <v>-201.999</v>
       </c>
       <c r="B42">
-        <v>401.99900000000002</v>
+        <v>466.99799999999999</v>
       </c>
       <c r="C42">
-        <v>-10.994</v>
+        <v>-112.991</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>-648.98199999999997</v>
+        <v>-645.01400000000001</v>
       </c>
       <c r="B43">
-        <v>31.954000000000001</v>
+        <v>427.93599999999998</v>
       </c>
       <c r="C43">
-        <v>-2.9470000000000001</v>
+        <v>44.064999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>-633.02200000000005</v>
+        <v>-640.00900000000001</v>
       </c>
       <c r="B44">
-        <v>343.90699999999998</v>
+        <v>85.924999999999997</v>
       </c>
       <c r="C44">
-        <v>114.063</v>
+        <v>48.034999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>656</v>
+        <v>661.99900000000002</v>
       </c>
       <c r="B45">
-        <v>120.961</v>
+        <v>381.00400000000002</v>
       </c>
       <c r="C45">
-        <v>-8.9649999999999999</v>
+        <v>-147.946</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>663.98400000000004</v>
+        <v>674.99800000000005</v>
       </c>
       <c r="B46">
-        <v>87.971999999999994</v>
+        <v>397.99299999999999</v>
       </c>
       <c r="C46">
-        <v>147.04499999999999</v>
+        <v>-131.94300000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>-205.00800000000001</v>
+        <v>208.00299999999999</v>
       </c>
       <c r="B47">
-        <v>469.97699999999998</v>
+        <v>444.99900000000002</v>
       </c>
       <c r="C47">
-        <v>30.03</v>
+        <v>-97.997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>-654.99800000000005</v>
+        <v>-665.98400000000004</v>
       </c>
       <c r="B48">
-        <v>124.958</v>
+        <v>18.977</v>
       </c>
       <c r="C48">
-        <v>57.039000000000001</v>
+        <v>141.03700000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>-638.00400000000002</v>
+        <v>-649.98500000000001</v>
       </c>
       <c r="B49">
-        <v>283.97199999999998</v>
+        <v>274.00099999999998</v>
       </c>
       <c r="C49">
-        <v>49.024000000000001</v>
+        <v>104.029</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>653.99300000000005</v>
+        <v>670.98299999999995</v>
       </c>
       <c r="B50">
-        <v>334.00200000000001</v>
+        <v>26.986999999999998</v>
       </c>
       <c r="C50">
-        <v>-67.971000000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>676.97699999999998</v>
-      </c>
-      <c r="B51">
-        <v>329.01799999999997</v>
-      </c>
-      <c r="C51">
-        <v>-20.937000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>-197.00899999999999</v>
-      </c>
-      <c r="B52">
-        <v>461.99799999999999</v>
-      </c>
-      <c r="C52">
-        <v>-106.989</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>-677</v>
-      </c>
-      <c r="B53">
-        <v>98.91</v>
-      </c>
-      <c r="C53">
-        <v>-78.935000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>-678.02200000000005</v>
-      </c>
-      <c r="B54">
-        <v>471.91500000000002</v>
-      </c>
-      <c r="C54">
-        <v>72.091999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>648.98699999999997</v>
-      </c>
-      <c r="B55">
-        <v>275.005</v>
-      </c>
-      <c r="C55">
-        <v>-9.9640000000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>674.99699999999996</v>
-      </c>
-      <c r="B56">
-        <v>34.960999999999999</v>
-      </c>
-      <c r="C56">
-        <v>57.024000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>225.99199999999999</v>
-      </c>
-      <c r="B57">
-        <v>463.98599999999999</v>
-      </c>
-      <c r="C57">
-        <v>-59.988999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>-639.01700000000005</v>
-      </c>
-      <c r="B58">
-        <v>450.971</v>
-      </c>
-      <c r="C58">
-        <v>-121.944</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>-652.98500000000001</v>
-      </c>
-      <c r="B59">
-        <v>232.988</v>
-      </c>
-      <c r="C59">
-        <v>66.033000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>642.96400000000006</v>
-      </c>
-      <c r="B60">
-        <v>499.036</v>
-      </c>
-      <c r="C60">
-        <v>-127.94499999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>633.995</v>
-      </c>
-      <c r="B61">
-        <v>399.96100000000001</v>
-      </c>
-      <c r="C61">
-        <v>67.069999999999993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>272.99700000000001</v>
-      </c>
-      <c r="B62">
-        <v>405.99200000000002</v>
-      </c>
-      <c r="C62">
-        <v>-138.99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>-662.98699999999997</v>
-      </c>
-      <c r="B63">
-        <v>134.98599999999999</v>
-      </c>
-      <c r="C63">
-        <v>121.03100000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>-665.00900000000001</v>
-      </c>
-      <c r="B64">
-        <v>327.96199999999999</v>
-      </c>
-      <c r="C64">
-        <v>5.0650000000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>643.01300000000003</v>
-      </c>
-      <c r="B65">
-        <v>376.96300000000002</v>
-      </c>
-      <c r="C65">
-        <v>-81.933000000000007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>654.005</v>
-      </c>
-      <c r="B66">
-        <v>496.96499999999997</v>
-      </c>
-      <c r="C66">
-        <v>45.072000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>-16.09</v>
-      </c>
-      <c r="B67">
-        <v>503.678</v>
-      </c>
-      <c r="C67">
-        <v>124.99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>-645.01400000000001</v>
-      </c>
-      <c r="B68">
-        <v>328.93400000000003</v>
-      </c>
-      <c r="C68">
-        <v>90.04</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>-636.98</v>
-      </c>
-      <c r="B69">
-        <v>469.03100000000001</v>
-      </c>
-      <c r="C69">
-        <v>-145.96299999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>650.99800000000005</v>
-      </c>
-      <c r="B70">
-        <v>444.964</v>
-      </c>
-      <c r="C70">
-        <v>76.069999999999993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>647.98199999999997</v>
-      </c>
-      <c r="B71">
-        <v>435.01299999999998</v>
-      </c>
-      <c r="C71">
-        <v>-109.946</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>-239.01300000000001</v>
-      </c>
-      <c r="B72">
-        <v>446.983</v>
-      </c>
-      <c r="C72">
-        <v>96.016000000000005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>-659.98599999999999</v>
-      </c>
-      <c r="B73">
-        <v>229.02</v>
-      </c>
-      <c r="C73">
-        <v>-54.973999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>-649.00400000000002</v>
-      </c>
-      <c r="B74">
-        <v>316.971</v>
-      </c>
-      <c r="C74">
-        <v>-3.9609999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>632.00599999999997</v>
-      </c>
-      <c r="B75">
-        <v>295.93299999999999</v>
-      </c>
-      <c r="C75">
-        <v>132.05600000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>650.97699999999998</v>
-      </c>
-      <c r="B76">
-        <v>342.02100000000002</v>
-      </c>
-      <c r="C76">
-        <v>-40.945999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>-287.01299999999998</v>
-      </c>
-      <c r="B77">
-        <v>413.99</v>
-      </c>
-      <c r="C77">
-        <v>27.013999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>-673.99</v>
-      </c>
-      <c r="B78">
-        <v>49.953000000000003</v>
-      </c>
-      <c r="C78">
-        <v>-74.945999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>-654.98599999999999</v>
-      </c>
-      <c r="B79">
-        <v>237.97800000000001</v>
-      </c>
-      <c r="C79">
-        <v>-25.934999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>661.99099999999999</v>
-      </c>
-      <c r="B80">
-        <v>14.946999999999999</v>
-      </c>
-      <c r="C80">
-        <v>60.037999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>630.01199999999994</v>
-      </c>
-      <c r="B81">
-        <v>286.93900000000002</v>
-      </c>
-      <c r="C81">
-        <v>83.042000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>-252.01400000000001</v>
-      </c>
-      <c r="B82">
-        <v>470.99200000000002</v>
-      </c>
-      <c r="C82">
-        <v>32.008000000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>-633.99</v>
-      </c>
-      <c r="B83">
-        <v>329.98599999999999</v>
-      </c>
-      <c r="C83">
-        <v>82.028000000000006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>-664.99900000000002</v>
-      </c>
-      <c r="B84">
-        <v>360.976</v>
-      </c>
-      <c r="C84">
-        <v>-29.943999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>679.00599999999997</v>
-      </c>
-      <c r="B85">
-        <v>297.89400000000001</v>
-      </c>
-      <c r="C85">
-        <v>122.084</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>657.00800000000004</v>
-      </c>
-      <c r="B86">
-        <v>159.95400000000001</v>
-      </c>
-      <c r="C86">
-        <v>21.033999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>-162.994</v>
-      </c>
-      <c r="B87">
-        <v>446</v>
-      </c>
-      <c r="C87">
-        <v>-64.995999999999995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>-675.99199999999996</v>
-      </c>
-      <c r="B88">
-        <v>399.99099999999999</v>
-      </c>
-      <c r="C88">
-        <v>-126.943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>-666.99099999999999</v>
-      </c>
-      <c r="B89">
-        <v>107.983</v>
-      </c>
-      <c r="C89">
-        <v>57.033000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>657.99800000000005</v>
-      </c>
-      <c r="B90">
-        <v>320.97300000000001</v>
-      </c>
-      <c r="C90">
-        <v>-92.924000000000007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>668.00300000000004</v>
-      </c>
-      <c r="B91">
-        <v>199.96899999999999</v>
-      </c>
-      <c r="C91">
-        <v>-3.9649999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>-201.999</v>
-      </c>
-      <c r="B92">
-        <v>466.99799999999999</v>
-      </c>
-      <c r="C92">
-        <v>-112.991</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>-645.01400000000001</v>
-      </c>
-      <c r="B93">
-        <v>427.93599999999998</v>
-      </c>
-      <c r="C93">
-        <v>44.064999999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>-640.00900000000001</v>
-      </c>
-      <c r="B94">
-        <v>85.924999999999997</v>
-      </c>
-      <c r="C94">
-        <v>48.034999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>661.99900000000002</v>
-      </c>
-      <c r="B95">
-        <v>381.00400000000002</v>
-      </c>
-      <c r="C95">
-        <v>-147.946</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>674.99800000000005</v>
-      </c>
-      <c r="B96">
-        <v>397.99299999999999</v>
-      </c>
-      <c r="C96">
-        <v>-131.94300000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>208.00299999999999</v>
-      </c>
-      <c r="B97">
-        <v>444.99900000000002</v>
-      </c>
-      <c r="C97">
-        <v>-97.997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>-665.98400000000004</v>
-      </c>
-      <c r="B98">
-        <v>18.977</v>
-      </c>
-      <c r="C98">
-        <v>141.03700000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>-649.98500000000001</v>
-      </c>
-      <c r="B99">
-        <v>274.00099999999998</v>
-      </c>
-      <c r="C99">
-        <v>104.029</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>670.98299999999995</v>
-      </c>
-      <c r="B100">
-        <v>26.986999999999998</v>
-      </c>
-      <c r="C100">
         <v>54.043999999999997</v>
       </c>
     </row>
